--- a/Question_Sets/Role-specific skills/Scrum Master.xlsx
+++ b/Question_Sets/Role-specific skills/Scrum Master.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your team has recently transitioned to Scrum, and you have been appointed the Scrum Master. You feel there’s a need to assist your team in better understanding their roles within the Scrum framework.Which action should you take to achieve this most efficiently and effectively?', 'ques_type': 2, 'options': ['Prepare role-playing exercises that cover interactions between roles.', 'Rotate team members between the various roles in the first few Sprints.', 'Assume the role of Product Owner for the first few Sprints.', 'Encourage all team members to pursue Scrum Master certifications.'], 'score': 'Prepare role-playing exercises that cover interactions between roles.'}, {'title': 'You’re a Scrum Master overseeing a software development project. Recently, attendance at Daily Scrum meetings has become irregular.Who should you encourage to attend whenever possible?', 'ques_type': 2, 'options': ['The Scrum Master and development team.', 'The development team, with the Product Owner attending as needed.', 'The entire Scrum Team, including the Product Owner.', 'Only the development team.'], 'score': 'The development team, with the Product Owner attending as needed.'}, {'title': 'You’re a Scrum Master leading an Agile team in a software development project. Which of the following should you consider to be your primary responsibility?', 'ques_type': 2, 'options': ['Ensuring all three key questions are answered during the Daily Scrum.', 'Promoting and supporting Scrum as defined in the Scrum Guide.', 'Coordinating the work as a project manager.', "Dictating the team's work schedule and deadlines."], 'score': 'Promoting and supporting Scrum as defined in the Scrum Guide.'}, {'title': 'You’re a Scrum Master and part of a Scrum Team working on a software development project. A developer named Ash approaches you for a meeting and expresses concerns about the performance of a colleague, Pat, not meeting expectations.Which action should you take first?', 'ques_type': 2, 'options': ['Discuss the possibility of reassigning Pat to a different team with management.', 'Speak directly to Pat and devise a plan to enhance their performance.', 'Arrange a meeting with Ash and Pat to address their concerns and assist them in finding a solution.', 'Advise Ash to bring up the issue at the next Sprint Retrospective meeting with the entire team.'], 'score': 'Arrange a meeting with Ash and Pat to address their concerns and assist them in finding a solution.'}]</t>
+    <t>questions = [
+    {
+        "title": "Your team has recently transitioned to Scrum, and you have been appointed the Scrum Master. You feel there\u2019s a need to assist your team in better understanding their roles within the Scrum framework.Which action should you take to achieve this most efficiently and effectively?",
+        "ques_type": 2,
+        "options": [
+            "Prepare role-playing exercises that cover interactions between roles.",
+            "Rotate team members between the various roles in the first few Sprints.",
+            "Assume the role of Product Owner for the first few Sprints.",
+            "Encourage all team members to pursue Scrum Master certifications."
+        ],
+        "score": "Prepare role-playing exercises that cover interactions between roles."
+    },
+    {
+        "title": "You\u2019re a Scrum Master overseeing a software development project. Recently, attendance at Daily Scrum meetings has become irregular.Who should you encourage to attend whenever possible?",
+        "ques_type": 2,
+        "options": [
+            "The Scrum Master and development team.",
+            "The development team, with the Product Owner attending as needed.",
+            "The entire Scrum Team, including the Product Owner.",
+            "Only the development team."
+        ],
+        "score": "The development team, with the Product Owner attending as needed."
+    },
+    {
+        "title": "You\u2019re a Scrum Master leading an Agile team in a software development project. Which of the following should you consider to be your primary responsibility?",
+        "ques_type": 2,
+        "options": [
+            "Ensuring all three key questions are answered during the Daily Scrum.",
+            "Promoting and supporting Scrum as defined in the Scrum Guide.",
+            "Coordinating the work as a project manager.",
+            "Dictating the team's work schedule and deadlines."
+        ],
+        "score": "Promoting and supporting Scrum as defined in the Scrum Guide."
+    },
+    {
+        "title": "You\u2019re a Scrum Master and part of a Scrum Team working on a software development project. A developer named Ash approaches you for a meeting and expresses concerns about the performance of a colleague, Pat, not meeting expectations.Which action should you take first?",
+        "ques_type": 2,
+        "options": [
+            "Discuss the possibility of reassigning Pat to a different team with management.",
+            "Speak directly to Pat and devise a plan to enhance their performance.",
+            "Arrange a meeting with Ash and Pat to address their concerns and assist them in finding a solution.",
+            "Advise Ash to bring up the issue at the next Sprint Retrospective meeting with the entire team."
+        ],
+        "score": "Arrange a meeting with Ash and Pat to address their concerns and assist them in finding a solution."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
